--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/occupation_debt_PA.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/occupation_debt_PA.xlsx
@@ -1,15 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisliao/Google Drive/Non-Academic Work/Research/Sargent/SPEOC-pt-1/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A509506-14F0-0742-8763-2925B076E231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$44</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -163,8 +184,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +248,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -273,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,9 +334,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,6 +386,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,14 +579,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,187 +613,187 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>1182907.9099999999</v>
+      </c>
+      <c r="D2">
+        <v>215</v>
+      </c>
+      <c r="E2">
+        <v>5501.8972558139531</v>
+      </c>
+      <c r="F2">
+        <v>75.343000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>136281.75</v>
+      </c>
+      <c r="D3">
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <v>2349.6853448275861</v>
+      </c>
+      <c r="F3">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>48926.41</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>3261.760666666667</v>
+      </c>
+      <c r="F4">
+        <v>3.1160000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>27942.080000000002</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>3991.7257142857152</v>
+      </c>
+      <c r="F5">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>16994.29</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>3395.83</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1697.915</v>
-      </c>
-      <c r="F2">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E6">
+        <v>3398.8579999999988</v>
+      </c>
+      <c r="F6">
+        <v>1.0820000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>16467.27</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>2164.98</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2164.98</v>
-      </c>
-      <c r="F3">
-        <v>0.138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1225.27</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1225.27</v>
-      </c>
-      <c r="F4">
-        <v>0.078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1539.82</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1539.82</v>
-      </c>
-      <c r="F5">
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>136281.75</v>
-      </c>
-      <c r="D6">
-        <v>58</v>
-      </c>
-      <c r="E6">
-        <v>2349.685344827586</v>
-      </c>
-      <c r="F6">
-        <v>8.68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>3352.19</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
       <c r="E7">
-        <v>838.0474999999999</v>
+        <v>2744.5450000000001</v>
       </c>
       <c r="F7">
-        <v>0.214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1.0489999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>5962.16</v>
+        <v>12930.73</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>1490.54</v>
+        <v>3232.6824999999999</v>
       </c>
       <c r="F8">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>219.47</v>
+        <v>12624.04</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>219.47</v>
+        <v>12624.04</v>
       </c>
       <c r="F9">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>601.58</v>
+        <v>9377.76</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>601.58</v>
+        <v>4688.88</v>
       </c>
       <c r="F10">
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -726,99 +801,99 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>8858.799999999999</v>
+        <v>8858.7999999999993</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>4429.4</v>
+        <v>4429.3999999999996</v>
       </c>
       <c r="F11">
-        <v>0.5639999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>48926.41</v>
+        <v>8248.48</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>3261.760666666667</v>
+        <v>2749.4933333333329</v>
       </c>
       <c r="F12">
-        <v>3.116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>3840.61</v>
+        <v>8141.95</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>1920.305</v>
+        <v>2713.9833333333331</v>
       </c>
       <c r="F13">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>27942.08</v>
+        <v>7079.6600000000008</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>3991.725714285715</v>
+        <v>1769.915</v>
       </c>
       <c r="F14">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>1851.91</v>
+        <v>6190.579999999999</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>462.9775</v>
+        <v>6190.579999999999</v>
       </c>
       <c r="F15">
-        <v>0.118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -826,559 +901,559 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>6119.700000000001</v>
+        <v>6119.7000000000007</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>6119.700000000001</v>
+        <v>6119.7000000000007</v>
       </c>
       <c r="F16">
         <v>0.39</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>16994.29</v>
+        <v>5962.16</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>3398.857999999999</v>
+        <v>1490.54</v>
       </c>
       <c r="F17">
-        <v>1.082</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>4848.43</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2424.2150000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>4213.34</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2106.67</v>
+      </c>
+      <c r="F19">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>251.73</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>251.73</v>
-      </c>
-      <c r="F18">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>8141.95</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>2713.983333333333</v>
-      </c>
-      <c r="F19">
-        <v>0.519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
       <c r="C20">
-        <v>4848.43</v>
+        <v>3840.61</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>2424.215</v>
+        <v>1920.3050000000001</v>
       </c>
       <c r="F20">
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C21">
-        <v>2673.58</v>
+        <v>3723.89</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>1336.79</v>
+        <v>1861.9449999999999</v>
       </c>
       <c r="F21">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C22">
-        <v>9377.76</v>
+        <v>3402.01</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22">
-        <v>4688.88</v>
+        <v>1701.0050000000001</v>
       </c>
       <c r="F22">
-        <v>0.597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>6190.579999999999</v>
+        <v>3395.83</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>6190.579999999999</v>
+        <v>1697.915</v>
       </c>
       <c r="F23">
-        <v>0.394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>7079.660000000001</v>
+        <v>3352.19</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>1769.915</v>
+        <v>838.0474999999999</v>
       </c>
       <c r="F24">
-        <v>0.451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>3131.150000000001</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3131.150000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>2673.58</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1336.79</v>
+      </c>
+      <c r="F26">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>2570.4299999999998</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1285.2149999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>2481.63</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1240.8150000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>2208.3000000000002</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2208.3000000000002</v>
+      </c>
+      <c r="F29">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>2164.98</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2164.98</v>
+      </c>
+      <c r="F30">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>1881.57</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1881.57</v>
+      </c>
+      <c r="F31">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>1851.91</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>462.97750000000002</v>
+      </c>
+      <c r="F32">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>1539.82</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1539.82</v>
+      </c>
+      <c r="F33">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>1516.1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1516.1</v>
+      </c>
+      <c r="F34">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>1469.8</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1469.8</v>
+      </c>
+      <c r="F35">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>1225.27</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1225.27</v>
+      </c>
+      <c r="F36">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>935.14</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>935.14</v>
+      </c>
+      <c r="F37">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>28</v>
       </c>
-      <c r="C25">
-        <v>1182907.91</v>
-      </c>
-      <c r="D25">
-        <v>215</v>
-      </c>
-      <c r="E25">
-        <v>5501.897255813953</v>
-      </c>
-      <c r="F25">
-        <v>75.343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>852.64</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>852.64</v>
+      </c>
+      <c r="F38">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>601.58000000000004</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>601.58000000000004</v>
+      </c>
+      <c r="F39">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>29</v>
       </c>
-      <c r="C26">
-        <v>1516.1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1516.1</v>
-      </c>
-      <c r="F26">
-        <v>0.097</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>518</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>518</v>
+      </c>
+      <c r="F40">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>251.73</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>251.73</v>
+      </c>
+      <c r="F41">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>219.47</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>219.47</v>
+      </c>
+      <c r="F42">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>30</v>
       </c>
-      <c r="C27">
-        <v>3131.150000000001</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>3131.150000000001</v>
-      </c>
-      <c r="F27">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28">
-        <v>12624.04</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>12624.04</v>
-      </c>
-      <c r="F28">
-        <v>0.804</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29">
-        <v>16467.27</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>2744.545</v>
-      </c>
-      <c r="F29">
-        <v>1.049</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30">
-        <v>852.64</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>852.64</v>
-      </c>
-      <c r="F30">
-        <v>0.054</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31">
-        <v>518</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>518</v>
-      </c>
-      <c r="F31">
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="C32">
-        <v>99.48999999999999</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>99.48999999999999</v>
-      </c>
-      <c r="F32">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33">
-        <v>2208.3</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>2208.3</v>
-      </c>
-      <c r="F33">
-        <v>0.141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34">
-        <v>8248.48</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>2749.493333333333</v>
-      </c>
-      <c r="F34">
-        <v>0.525</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35">
-        <v>3402.01</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>1701.005</v>
-      </c>
-      <c r="F35">
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36">
-        <v>935.14</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>935.14</v>
-      </c>
-      <c r="F36">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37">
-        <v>2570.43</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1285.215</v>
-      </c>
-      <c r="F37">
-        <v>0.164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38">
-        <v>3723.89</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>1861.945</v>
-      </c>
-      <c r="F38">
-        <v>0.237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39">
-        <v>1469.8</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1469.8</v>
-      </c>
-      <c r="F39">
-        <v>0.094</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40">
-        <v>4213.34</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>2106.67</v>
-      </c>
-      <c r="F40">
-        <v>0.268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41">
-        <v>12930.73</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>3232.6825</v>
-      </c>
-      <c r="F41">
-        <v>0.824</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42">
-        <v>2481.63</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>1240.815</v>
-      </c>
-      <c r="F42">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
       <c r="C43">
-        <v>1881.57</v>
+        <v>99.49</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1881.57</v>
+        <v>99.49</v>
       </c>
       <c r="F43">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1386,16 +1461,21 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2117078.05</v>
+        <v>2117078.0499999998</v>
       </c>
       <c r="D44">
         <v>868</v>
       </c>
       <c r="E44">
-        <v>2439.030011520738</v>
+        <v>2439.0300115207378</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F44" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
+      <sortCondition descending="1" ref="F1:F44"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>